--- a/Sample/Documentation/デバッグ資料/受入テスト仕様書_プラットフォーム運営システム_フォーマット.xlsx
+++ b/Sample/Documentation/デバッグ資料/受入テスト仕様書_プラットフォーム運営システム_フォーマット.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\BackBaseProxy\Sample\Documentation\デバッグ資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91455C3A-6D17-4DC1-8D0A-1EA5A3320EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BC30FB-95C8-4A7D-BA1D-506CC50F09C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="150" windowWidth="23805" windowHeight="14985" activeTab="1" xr2:uid="{600EECE4-6BB7-4C39-982D-6CFA550CBE1F}"/>
+    <workbookView xWindow="4230" yWindow="180" windowWidth="23595" windowHeight="15390" firstSheet="9" activeTab="10" xr2:uid="{600EECE4-6BB7-4C39-982D-6CFA550CBE1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="コンテンツプラットフォーム販売_シナリオ一覧" sheetId="5" r:id="rId1"/>
-    <sheet name="プラットフォーム運営_会員登録シナリオ" sheetId="1" r:id="rId2"/>
-    <sheet name="コンテンツプラットフォーム販売_ログインシナリオ" sheetId="4" r:id="rId3"/>
-    <sheet name="コンテンツプラットフォーム販売_ピックアップゲーム起動" sheetId="6" r:id="rId4"/>
-    <sheet name="コンテンツプラットフォーム販売_公開済みゲーム起動" sheetId="7" r:id="rId5"/>
-    <sheet name="コンテンツプラットフォーム販売_お知らせ情報表示" sheetId="8" r:id="rId6"/>
-    <sheet name="コンテンツプラットフォーム販売_メンテナンス機能" sheetId="11" r:id="rId7"/>
-    <sheet name="コンテンツプラットフォーム販売_CSお問合せ送信" sheetId="9" r:id="rId8"/>
-    <sheet name="コンテンツプラットフォーム販売_プロフィールダイアログ表示" sheetId="10" r:id="rId9"/>
-    <sheet name="コンテンツプラットフォーム販売_商品購入" sheetId="12" r:id="rId10"/>
+    <sheet name="プラットフォーム運営_シナリオ一覧" sheetId="5" r:id="rId1"/>
+    <sheet name="プラットフォーム運営_アカウント追加シナリオ" sheetId="1" r:id="rId2"/>
+    <sheet name="プラットフォーム運営_ログインシナリオ" sheetId="4" r:id="rId3"/>
+    <sheet name="プラットフォーム運営_運営チームアカウント管理" sheetId="6" r:id="rId4"/>
+    <sheet name="プラットフォーム運営_CS対応_プレイヤー情報お問合せ" sheetId="7" r:id="rId5"/>
+    <sheet name="プラットフォーム運営_プラットフォームメンテナンス切り替え管理" sheetId="8" r:id="rId6"/>
+    <sheet name="プラットフォーム運営_プラットフォームマスターデータ" sheetId="11" r:id="rId7"/>
+    <sheet name="プラットフォーム運営_ゲーム及びコンテンツ承認フロー" sheetId="9" r:id="rId8"/>
+    <sheet name="プラットフォーム運営_運営用ゲームピックアップ手順" sheetId="10" r:id="rId9"/>
+    <sheet name="プラットフォーム運営_データ分析チーム_KPIデータ収集用" sheetId="12" r:id="rId10"/>
+    <sheet name="プラットフォーム運営_運営用お知らせ追加ワークフロー" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="134">
   <si>
     <t>1-1.会員登録</t>
     <rPh sb="4" eb="8">
@@ -76,16 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイトにログインする会員情報を登録する</t>
-    <rPh sb="10" eb="14">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プラットフォーマの利用者</t>
     <rPh sb="9" eb="12">
       <t>リヨウシャ</t>
@@ -137,16 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プラットフォームへの会員DB登録確認</t>
-    <rPh sb="10" eb="12">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>トウロクカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メール通知確認</t>
     <rPh sb="3" eb="5">
       <t>ツウチ</t>
@@ -160,16 +141,6 @@
     <t>シナリオ確認結果</t>
     <rPh sb="4" eb="8">
       <t>カクニンケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みの会員でログインすることができる</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -315,22 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員ログイン状態へ切り替え</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン中切り替え処理</t>
     <rPh sb="4" eb="5">
       <t>チュウ</t>
@@ -368,279 +323,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バナー登録したゲームが起動できること</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バナーに表示されたゲームが遊べること</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1-3.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バナー先のゲーム画面に来たぞ、遊ぶぞ</t>
-    <rPh sb="3" eb="4">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム画面のピックアップバナーをクリック</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おお、これが目玉のゲームか、遊ぶぞー</t>
-    <rPh sb="6" eb="8">
-      <t>メダマ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>運用画面で適用した、ピックアップバナーが表示されていること</t>
-    <rPh sb="0" eb="4">
-      <t>ウンヨウガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示されているゲームがクリックしたゲームと同じであること</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定したゲームが起動すること</t>
-    <rPh sb="8" eb="10">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1-4.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>公開中ゲームが起動できること</t>
-    <rPh sb="0" eb="3">
-      <t>コウカイチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開中になっているゲームを選んで遊べること</t>
-    <rPh sb="0" eb="3">
-      <t>コウカイチュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開済みゲーム一覧ボタンをクリック</t>
-    <rPh sb="0" eb="3">
-      <t>コウカイズ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よーし、遊ぶぞー</t>
-    <rPh sb="4" eb="5">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よーし、このゲームを遊ぶぞー。ポチポチ</t>
-    <rPh sb="10" eb="11">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1-5.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>何かお知らせがきているな？</t>
-    <rPh sb="0" eb="1">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お、今回はこんなお知らせが表示されている</t>
-    <rPh sb="2" eb="4">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇機能を遊んでみよう</t>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>運用画面で設定したお知らせ情報が表示されていること</t>
-    <rPh sb="0" eb="2">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラットフォームのお知らせが表示されること</t>
-    <rPh sb="10" eb="11">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラットフォームの最新の情報を表示すること</t>
-    <rPh sb="9" eb="11">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ん？？何かわからないな、問合せ用</t>
-    <rPh sb="3" eb="4">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トイアワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>えっと、〇〇がうまく表示されないので確認をお願いします。</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境は〇〇〇〇を使っています。</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よし、お問合せ送信した。後は、返事をまとう</t>
-    <rPh sb="4" eb="6">
-      <t>トイアワ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -677,225 +372,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プラットフォームで、想定しているものと違う挙動の時にお問い合わせができること</t>
-    <rPh sb="10" eb="12">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お問合せ送信ができること</t>
-    <rPh sb="1" eb="3">
-      <t>トイアワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1-6.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラットフォーム全体のメンテナンスが動いていて、運営ができる状態を確認できること</t>
-    <rPh sb="8" eb="10">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ウンエイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンテナンスになっていて、ゲームや重複処理が発生しないこと。</t>
-    <rPh sb="17" eb="21">
-      <t>チョウフクショリ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よし、次はこのアプリを遊べるぞ</t>
-    <rPh sb="3" eb="4">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あ、メンテナンスにはいったぞ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なるほど、〇〇時には解除されるのか―</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンテナンス中のダイアログやページが起動すること</t>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>強制ログアウトまたは、次のページへ遷移しないこと</t>
-    <rPh sb="0" eb="2">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラットフォーム全体で使える、ポイントなどが購入できること。</t>
-    <rPh sb="8" eb="10">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よし、ポイントを買おう</t>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お、キャンペーンを実行されているな</t>
-    <rPh sb="9" eb="11">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この3000ポイントパックを選択しよう</t>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入ボタンをポチッ</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よし、ポイントが反映されているぞ、課金するぞー</t>
-    <rPh sb="8" eb="10">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャンペーン処理が反映されていること</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品向けのリンクがあること</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常及びキャンペーンの商品を購入ボタンが押せること。</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開済みゲーム一覧確認</t>
-    <rPh sb="0" eb="3">
-      <t>コウカイズ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラットフォーム公開前確認用端末一覧</t>
-    <rPh sb="8" eb="10">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>カクニンヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチラン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -954,16 +431,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>申請中ゲーム確認</t>
-    <rPh sb="0" eb="3">
-      <t>シンセイチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・トップ画面に表示されている公開済みゲーム一覧をクリック
 ・自社で運営しているゲームの一覧が表示されていること</t>
     <rPh sb="4" eb="6">
@@ -990,16 +457,6 @@
     </rPh>
     <rPh sb="14" eb="18">
       <t>タンマツイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム及びコンテンツ申請ワークフロー</t>
-    <rPh sb="3" eb="4">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1048,6 +505,1010 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営チームアカウント管理</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS対応_プレイヤー情報お問合せ</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トイアワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームメンテナンス切り替え管理</t>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-7.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム及びコンテンツ承認フロー</t>
+    <rPh sb="3" eb="4">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームマスターデータ
+バージョンアップフロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-8.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営用ゲームピックアップ手順</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-9.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS対応_課金関連調査編</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンレンチョウサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-10.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ分析チーム_KPIデータ収集用</t>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シュウシュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-11.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営用お知らせ追加ワークフロー</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・申請されたゲームを承認できること
+・承認されたゲームがプラットフォームで公開されていること</t>
+    <rPh sb="1" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ピックアップ設定画面へ遷移
+・ピックアップ情報について、最新版に反映
+・ピックアップ情報がプラットフォームアプリに反映されていること</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>サイシンバン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログ画面へ遷移
+・課金ログ</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の操作について、基本セット分動作確認をする（DAU,MAU,HAU,月次売上)
+    ・該当の一覧画面クリック
+　・CSVデータをダウンロードして、運営チームのソフトで使えるファイルなのを確認できること</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツキツギ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お知らせ一覧画面へ移動する
+・お知らせ情報を追加する
+・管理画面とプラットフォームでお知らせが範囲されていること</t>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営システム用のアカウントを追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営用のメンバーを追加する</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム運営チーム</t>
+    <rPh sb="8" eb="10">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営用DBへの登録確認</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トウロクカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの運営アカウントでログインすることができる</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営アカウントで利用する</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営アカウントログイン状態へ切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1.アカウント追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3.運営チームアカウント管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営チームから移動になった時に、アカウントの状態を変更することができること</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営チームのアカウント情報を閲覧と更新ができること</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム運営</t>
+    <rPh sb="8" eb="10">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームに復帰したから、アカウント状態更新しよう</t>
+    <rPh sb="4" eb="6">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ジョウタイコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えっと、確かアカウント一覧から更新だったな。</t>
+    <rPh sb="4" eb="5">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日、運営チームの入れ替わりがあるな。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を更新しないと</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営で使っているアカウント一覧が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント情報が更新されていること</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問合せが来た時に一次調査を運営でできること。</t>
+    <rPh sb="1" eb="3">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチツギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問合せのきたプレイヤー情報を確認したい</t>
+    <rPh sb="1" eb="3">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームの運営チーム</t>
+    <rPh sb="9" eb="11">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問合せのアカウント確認しよう</t>
+    <rPh sb="1" eb="3">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのidを入力してポチッとな</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お、あったな。うん、購入情報のリンクかな</t>
+    <rPh sb="10" eb="14">
+      <t>コウニュウジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームのメンテナンスを実施できるこお</t>
+    <rPh sb="16" eb="18">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームのメンテナンス日時を設定できること</t>
+    <rPh sb="15" eb="17">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よし、メンテナンスを開始しよう</t>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだ、メンテナンス開始前になっているな</t>
+    <rPh sb="9" eb="12">
+      <t>カイシマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンテナンス開始日時を今から10分後にしエ、</t>
+    <rPh sb="6" eb="10">
+      <t>カイシニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンテナンス終了日時を今から2時間後に</t>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ジカンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よし、メンテナンス開始状態になったな</t>
+    <rPh sb="9" eb="13">
+      <t>カイシジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターデータのバージョンをアップできること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームから配信するマスターデータを最新にアップデートできること</t>
+    <rPh sb="10" eb="12">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターデーを最新版にするぞ</t>
+    <rPh sb="7" eb="10">
+      <t>サイシンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一週間前が最新版だな。</t>
+    <rPh sb="0" eb="4">
+      <t>イッシュウカンマエ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイシンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さっきアップロードしたバージョンは0.8だｓな、これをポチッ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新版に切り替わったな</t>
+    <rPh sb="0" eb="3">
+      <t>サイシンバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各会社から、申請されたゲーム及びコンテンツを承認してアプリとしてリリースする</t>
+    <rPh sb="0" eb="3">
+      <t>カクカイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認作業をして新規アプリを公開できること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウニンサギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よし、申請されているアプリを確認する時間だ</t>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認待ちになっているゲームはこれか</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うん、チェックシートの項目は満たしているな</t>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それじゃあ、承認っと。</t>
+    <rPh sb="6" eb="8">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開中になっているな</t>
+    <rPh sb="0" eb="3">
+      <t>コウカイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト側でもアプリ一覧に反映されているな。</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-8.ゲーム及びコンテンツ承認フロー</t>
+    <rPh sb="7" eb="8">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-9.運営用ゲームピックアップ手順</t>
+    <rPh sb="4" eb="6">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム内のピックアップを更新して、プラットフォームの会員向けに広告を設定して運営すすめられること</t>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>カイインム</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピックアップ情報を更新できること</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピックアップ情報を最新の〇〇を押すぞー</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしているトップ画面が表示されていること</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピックアップ情報一覧が表示されていること</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピックアップ情報を想定通りに設定できること</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ソウテイドオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他に表示しているピックアップはないな、これを出すか。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月のピックアップは、アプリid35とアプリid47を設定しよう</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ分析チームがKPIセットをダウンロードして、
+プラットフォーム内の人気アプリなどを解析する。</t>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KPI一式のCSVダウンロード</t>
+    <rPh sb="3" eb="5">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント完了したな。</t>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のイベント運営で利用するために、KPIダウンロードしよう</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVダウンロードはこれだだな。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポチッとな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月中旬のDAUはキャンペーン更新後から上がっているな。</t>
+    <rPh sb="0" eb="4">
+      <t>コンゲツチュウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるほど、このアプリか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規設定完了したぞ。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よし、今回の更新内容を利用者に連絡するぞ</t>
+    <rPh sb="3" eb="5">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>コウシンナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ一覧で、追加ボタンをポチッとな</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よし、入力内容が反映されたな</t>
+    <rPh sb="3" eb="7">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それじゃあ、プラットフォームのお知らせがちゃんと表示されているかを確認する。</t>
+    <rPh sb="16" eb="17">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は通知画面の新規実装をしました… と</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ツウチガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シンキジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1137,14 +1598,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
@@ -1173,6 +1626,15 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1209,7 +1671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1250,13 +1712,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,8 +1783,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1293,14 +1801,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,7 +1822,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1338,32 +1843,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1422,17 +1915,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1750,6 +2264,435 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>会員登録完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2047AF8A-62D8-489D-B74B-5F97F500FB8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="3638550"/>
+          <a:ext cx="2809875" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>トップ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1627414</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1687285</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960EAE02-7299-4B64-8816-C677F9F784CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5056414" y="3797754"/>
+          <a:ext cx="2374446" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C9911A-BFD1-4D64-87A4-8B71DBF0AE1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="3633108"/>
+          <a:ext cx="3374571" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>お知らせ一覧画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>979713</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFCDA91-ED56-4573-B837-778984B4EEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13566320" y="3605893"/>
+          <a:ext cx="3184073" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>お知らせ編集画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808263</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C28E344-5AAC-499C-B3FA-7348591C7070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11021785" y="3782785"/>
+          <a:ext cx="2373085" cy="404131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>440871</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B876FE2-02FD-488B-BA36-1EACB5AFC6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16859250" y="3850821"/>
+          <a:ext cx="2373085" cy="404131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>272145</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CAC585F-DF6B-489E-8AFD-9B5B5EDE7FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19281322" y="3701143"/>
+          <a:ext cx="3184073" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>お知らせ一覧画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2244,7 +3187,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ゲーム詳細画面</a:t>
+            <a:t>アカウント一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2365,8 +3308,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ゲーム起動</a:t>
+            <a:t>各種変更ボタン</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2441,15 +3385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:colOff>1532165</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:colOff>952501</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2464,8 +3408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5573486" y="3864430"/>
-          <a:ext cx="2373085" cy="404131"/>
+          <a:off x="4933951" y="3769180"/>
+          <a:ext cx="1733550" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2501,15 +3445,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1129393</xdr:colOff>
+      <xdr:colOff>353787</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>236764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2524,8 +3468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716000" y="3624943"/>
-          <a:ext cx="3143250" cy="789214"/>
+          <a:off x="12940394" y="3611336"/>
+          <a:ext cx="4136571" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2552,7 +3496,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>ゲーム詳細画面</a:t>
+            <a:t>検索結果情報ウィンドウ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2561,16 +3505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>507547</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480332</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>993320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2585,128 +3529,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11733440" y="3724275"/>
-          <a:ext cx="1846487" cy="404131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>231321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>406854</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9DE5CB-BC0B-43A6-A0C2-E95A022EC242}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19131643" y="3660321"/>
-          <a:ext cx="2788104" cy="789215"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>ゲーム起動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矢印: 右 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB366F8-97D2-426B-BFEB-7A2D7DC47738}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17145000" y="3864428"/>
+          <a:off x="11025868" y="3778704"/>
           <a:ext cx="1846487" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2743,15 +3566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2558142</xdr:colOff>
+      <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>204108</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2766,8 +3589,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8273142" y="3633108"/>
-          <a:ext cx="3143250" cy="789214"/>
+          <a:off x="6953250" y="3592286"/>
+          <a:ext cx="4000499" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2794,7 +3617,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>ゲーム一覧画面</a:t>
+            <a:t>プレイヤー検索画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2859,7 +3682,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
             <a:t>トップ画面</a:t>
           </a:r>
         </a:p>
@@ -2870,15 +3693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:colOff>1722664</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:colOff>1782535</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>77561</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2893,8 +3716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="3838576"/>
-          <a:ext cx="2374446" cy="390524"/>
+          <a:off x="5124450" y="3837216"/>
+          <a:ext cx="2373085" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2930,15 +3753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2558141</xdr:colOff>
+      <xdr:colOff>1768930</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>204108</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2953,8 +3776,316 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8273141" y="3633108"/>
-          <a:ext cx="3551465" cy="789214"/>
+          <a:off x="7483930" y="3605893"/>
+          <a:ext cx="3946070" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>メンテナンス画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF574B6F-8F73-4992-896F-8CE9875A062F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11742964" y="3769179"/>
+          <a:ext cx="2373085" cy="404131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176891</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4600D8DD-E807-4051-9D86-6FD78818E8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14341928" y="3592286"/>
+          <a:ext cx="3946070" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>日時設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>506185</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>234043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EC7FA6-D7DA-47E2-AB31-2009781B9A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20658364" y="3608615"/>
+          <a:ext cx="3946070" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>メンテ確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 右 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5940A5F-8DEA-42D7-822D-E101D3A09D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18464893" y="3837214"/>
+          <a:ext cx="2373085" cy="404131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240845</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1374321</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C25218-7FAF-4E49-AAB3-D69A37D7F0F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2281916" y="3712029"/>
+          <a:ext cx="2494191" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,73 +4112,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>お知らせダイアログ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C25218-7FAF-4E49-AAB3-D69A37D7F0F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2066925" y="3638550"/>
-          <a:ext cx="2809875" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>リンクかボタンをクリック</a:t>
+            <a:t>トップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3057,15 +4122,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:colOff>1436914</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2231571</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1496785</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3080,8 +4145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="3838576"/>
-          <a:ext cx="2374446" cy="390524"/>
+          <a:off x="4838700" y="3837216"/>
+          <a:ext cx="2373085" cy="571498"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3117,15 +4182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2558141</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>204108</xdr:rowOff>
+      <xdr:colOff>1850573</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3140,8 +4205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8301716" y="3614058"/>
-          <a:ext cx="4064455" cy="762000"/>
+          <a:off x="7565573" y="3714751"/>
+          <a:ext cx="3483428" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3168,7 +4233,128 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>メンテナンス中機能を起動</a:t>
+            <a:t>バージョン情報画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEF4B7E-93CF-43C1-9A7C-A4D650B375B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239499" y="3687537"/>
+          <a:ext cx="2789465" cy="775606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258534</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E15375-1517-4B2A-9015-5089B027A325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14205856" y="3646714"/>
+          <a:ext cx="3483428" cy="789214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>バージョン切り替え</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3234,7 +4420,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>お問合せリンク</a:t>
+            <a:t>トップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3244,15 +4430,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:colOff>1532164</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>217716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:colOff>1592035</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>131990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3267,8 +4453,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="3838576"/>
-          <a:ext cx="2374446" cy="390524"/>
+          <a:off x="4933950" y="3891645"/>
+          <a:ext cx="2373085" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3304,15 +4490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2558141</xdr:colOff>
+      <xdr:colOff>1687286</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>204108</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3327,8 +4513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8273141" y="3633108"/>
-          <a:ext cx="4054930" cy="789214"/>
+          <a:off x="7402286" y="3619501"/>
+          <a:ext cx="5279571" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3355,7 +4541,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>お問い合わせフォーム</a:t>
+            <a:t>登録済み・コンテンツ一覧画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3364,16 +4550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>585107</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3388,8 +4574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14967856" y="3619500"/>
-          <a:ext cx="3048001" cy="789214"/>
+          <a:off x="15593785" y="3633107"/>
+          <a:ext cx="4490358" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3416,7 +4602,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>お問い合わせ送信</a:t>
+            <a:t>コンテンツ・承認一覧機能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3425,14 +4611,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>658586</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63952</xdr:rowOff>
     </xdr:to>
@@ -3449,8 +4635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12314465" y="3823607"/>
-          <a:ext cx="2373085" cy="404131"/>
+          <a:off x="12736286" y="3823607"/>
+          <a:ext cx="2217964" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3491,15 +4677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>159204</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>214993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:colOff>1597479</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3514,8 +4700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="3638550"/>
-          <a:ext cx="2809875" cy="762000"/>
+          <a:off x="2200275" y="3643993"/>
+          <a:ext cx="2798990" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3542,7 +4728,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>お問合せリンク</a:t>
+            <a:t>トップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3552,15 +4738,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:colOff>1695450</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>136073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:colOff>1755321</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>50347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3575,8 +4761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="3838576"/>
-          <a:ext cx="2374446" cy="390524"/>
+          <a:off x="5097236" y="3810002"/>
+          <a:ext cx="2373085" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3612,7 +4798,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2558141</xdr:colOff>
+      <xdr:colOff>1796143</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
@@ -3635,8 +4821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8301716" y="3614058"/>
-          <a:ext cx="4064455" cy="762000"/>
+          <a:off x="7511143" y="3633108"/>
+          <a:ext cx="4816928" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3663,7 +4849,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>お問い合わせフォーム</a:t>
+            <a:t>ピックアップバナー一覧画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3673,15 +4859,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
+      <xdr:colOff>517071</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>585107</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>231320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3696,8 +4882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15022285" y="3600450"/>
-          <a:ext cx="3069772" cy="762000"/>
+          <a:off x="15226392" y="3605892"/>
+          <a:ext cx="5034643" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3724,7 +4910,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>お問い合わせ送信</a:t>
+            <a:t>ピックアップバナー編集画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3734,15 +4920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
+      <xdr:colOff>598715</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>658586</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63952</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>240846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3757,8 +4943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12352565" y="3797753"/>
-          <a:ext cx="2383971" cy="390524"/>
+          <a:off x="12504965" y="3755572"/>
+          <a:ext cx="2373085" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3850,7 +5036,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>商品リンク</a:t>
+            <a:t>トップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3860,15 +5046,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:colOff>1627414</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:colOff>1687285</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>63953</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3883,8 +5069,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="3838576"/>
-          <a:ext cx="2374446" cy="390524"/>
+          <a:off x="5029200" y="3823608"/>
+          <a:ext cx="2373085" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3920,7 +5106,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2558141</xdr:colOff>
+      <xdr:colOff>1809750</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
@@ -3943,8 +5129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8301716" y="3614058"/>
-          <a:ext cx="4064455" cy="762000"/>
+          <a:off x="7524750" y="3633108"/>
+          <a:ext cx="4803321" cy="789214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3970,9 +5156,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>KPI</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>商品選択ダイアログ</a:t>
+            <a:t>一覧画面</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>(DAU,MAU,HAU)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4031,8 +5226,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>購入完了</a:t>
+            <a:t>ダウンロード</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4042,15 +5241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
+      <xdr:colOff>544286</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>658586</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>63952</xdr:rowOff>
+      <xdr:rowOff>50345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4065,129 +5264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12352565" y="3797753"/>
-          <a:ext cx="2383971" cy="390524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>140153</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B887B9D-B426-43F2-BD1F-3ED9CA8CC025}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19934464" y="3524250"/>
-          <a:ext cx="5823857" cy="1024617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>ダイアログ閉じて、ポイント反映</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>13609</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63952</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矢印: 右 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250981E5-0514-4E3E-A829-BCB9DDBCBD08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18124716" y="3823607"/>
-          <a:ext cx="1632856" cy="404131"/>
+          <a:off x="12450536" y="3810000"/>
+          <a:ext cx="2373085" cy="404131"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4522,14 +5600,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD069F2A-12E8-497B-8772-2BAE90344449}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:J16"/>
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="34.75" customWidth="1"/>
+    <col min="6" max="6" width="41.375" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="19.125" customWidth="1"/>
     <col min="10" max="10" width="94.875" customWidth="1"/>
@@ -4542,46 +5620,46 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -4607,188 +5685,236 @@
       <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.4">
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.4">
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.4">
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.4">
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="43">
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
@@ -4826,6 +5952,12 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4834,10 +5966,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CFC460-27E8-4455-9D86-A21411A3C5E9}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4849,111 +5981,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4977,43 +6107,43 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5037,17 +6167,17 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5056,7 +6186,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -5064,46 +6194,51 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="H17" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="O17" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="O18" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -5111,29 +6246,22 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="4"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5143,39 +6271,39 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -5183,19 +6311,22 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G39" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5229,12 +6360,409 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9CC6BF-5C16-4AE9-81D7-FEF22D8935A0}">
+  <dimension ref="A1:AE39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.4">
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+    </row>
+    <row r="2" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.4">
+      <c r="C3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.4">
+      <c r="C4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.4">
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="7" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="U17" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G39" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A28:C31"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A15:C19"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C25"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C14"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA3A95E-DBE7-4094-865A-F32E8FE52B3B}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5244,106 +6772,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-    </row>
-    <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -5351,43 +6881,43 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5395,49 +6925,49 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -5445,73 +6975,73 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="H22" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="H23" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="H23" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -5519,19 +7049,19 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5570,7 +7100,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5579,108 +7109,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -5688,43 +7218,43 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -5732,53 +7262,53 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
-        <v>13</v>
+      <c r="N16" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -5786,58 +7316,59 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="H22" s="3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
-        <v>33</v>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -5845,19 +7376,19 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5895,8 +7426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6DDD0C-F449-4167-BB23-7FB1A0F23858}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5908,111 +7439,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6020,43 +7555,43 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6064,52 +7599,55 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -6117,14 +7655,12 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="4"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -6132,13 +7668,13 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -6148,39 +7684,39 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -6188,19 +7724,19 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6226,7 +7762,7 @@
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6239,7 +7775,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6251,111 +7787,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6379,43 +7915,43 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6439,25 +7975,25 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="L16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -6465,44 +8001,42 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="U16" s="4"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -6510,28 +8044,22 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="4"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -6541,39 +8069,39 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -6581,19 +8109,19 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6631,8 +8159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA1DE5-18B1-419B-9FB7-667782EB8A4A}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="K2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6644,111 +8172,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6772,43 +8300,43 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6832,24 +8360,26 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -6858,43 +8388,47 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
+      <c r="W16" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="H17" s="3" t="s">
-        <v>55</v>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="H17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -6902,28 +8436,22 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="4"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -6933,39 +8461,39 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -6973,19 +8501,19 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -7023,8 +8551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7899B4B9-E246-4AD7-9CAF-BF43D927FE63}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7036,111 +8564,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -7164,43 +8692,43 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -7224,23 +8752,25 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -7252,41 +8782,42 @@
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="H17" s="3" t="s">
-        <v>74</v>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="H17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -7294,15 +8825,11 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="4"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -7311,9 +8838,9 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -7323,39 +8850,39 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -7363,19 +8890,19 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -7414,7 +8941,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M1"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7426,111 +8953,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -7554,43 +9081,43 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -7614,17 +9141,17 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -7632,10 +9159,10 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -7643,57 +9170,63 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+        <v>106</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="P18" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+    <row r="22" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -7701,13 +9234,13 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -7716,63 +9249,63 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+    <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="A28:C31"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:J28"/>
@@ -7795,7 +9328,6 @@
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7807,8 +9339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D261010-4932-4F47-A934-38F69AE93D39}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7820,111 +9352,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.4">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="33" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="A9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -7948,43 +9480,43 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -8008,17 +9540,17 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -8026,10 +9558,10 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -8037,71 +9569,86 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+    <row r="17" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="N22" s="4"/>
+      <c r="P22" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -8110,63 +9657,79 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+    <row r="24" spans="1:31" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="A28:C31"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:J28"/>
@@ -8189,7 +9752,6 @@
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
